--- a/Examples/GUI_Truss2D/GUI_Arch_Truss_2_Solved.xlsx
+++ b/Examples/GUI_Truss2D/GUI_Arch_Truss_2_Solved.xlsx
@@ -9265,7 +9265,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.00081</v>
@@ -9276,7 +9276,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0.00081</v>
@@ -9650,7 +9650,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0.00018</v>
@@ -9705,7 +9705,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0.0002</v>

--- a/Examples/GUI_Truss2D/GUI_Arch_Truss_2_Solved.xlsx
+++ b/Examples/GUI_Truss2D/GUI_Arch_Truss_2_Solved.xlsx
@@ -9276,7 +9276,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.00081</v>
@@ -9650,7 +9650,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0.00018</v>
@@ -9705,7 +9705,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C43" t="n">
         <v>0.0002</v>
@@ -11663,7 +11663,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0.00017</v>
@@ -12883,7 +12883,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0.00033</v>

--- a/Examples/GUI_Truss2D/GUI_Arch_Truss_2_Solved.xlsx
+++ b/Examples/GUI_Truss2D/GUI_Arch_Truss_2_Solved.xlsx
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-16.22166</v>
+        <v>-8.11059</v>
       </c>
     </row>
     <row r="5">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00068</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="6">
@@ -1181,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00068</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="7">
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-16.22166</v>
+        <v>-8.11059</v>
       </c>
     </row>
     <row r="8">
@@ -1197,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-11.27333</v>
+        <v>-5.63667</v>
       </c>
     </row>
     <row r="9">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-11.27333</v>
+        <v>-5.63667</v>
       </c>
     </row>
     <row r="10">
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.14585</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.14585</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="12">
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-22.74727</v>
+        <v>-11.37376</v>
       </c>
     </row>
     <row r="13">
@@ -1237,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-22.74727</v>
+        <v>-11.37376</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.08811</v>
+        <v>4.04452</v>
       </c>
     </row>
     <row r="15">
@@ -1253,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.08811</v>
+        <v>4.04452</v>
       </c>
     </row>
     <row r="16">
@@ -1261,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-8.63837</v>
+        <v>-4.31834</v>
       </c>
     </row>
     <row r="17">
@@ -1269,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.63837</v>
+        <v>-4.31834</v>
       </c>
     </row>
     <row r="18">
@@ -1277,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.57046</v>
+        <v>-1.78593</v>
       </c>
     </row>
     <row r="19">
@@ -1285,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.57046</v>
+        <v>-1.78593</v>
       </c>
     </row>
     <row r="20">
@@ -1293,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-22.7465</v>
+        <v>-11.37396</v>
       </c>
     </row>
     <row r="21">
@@ -1301,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-22.7465</v>
+        <v>-11.37396</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.62233</v>
+        <v>-0.8125</v>
       </c>
     </row>
     <row r="23">
@@ -1317,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.62233</v>
+        <v>-0.8125</v>
       </c>
     </row>
     <row r="24">
@@ -1325,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2.32636</v>
+        <v>1.16253</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2.32636</v>
+        <v>1.16253</v>
       </c>
     </row>
     <row r="26">
@@ -1341,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.759</v>
+        <v>-0.88095</v>
       </c>
     </row>
     <row r="27">
@@ -1349,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.759</v>
+        <v>-0.88095</v>
       </c>
     </row>
     <row r="28">
@@ -1357,7 +1357,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-21.36709</v>
+        <v>-10.6828</v>
       </c>
     </row>
     <row r="29">
@@ -1365,7 +1365,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-21.36709</v>
+        <v>-10.6828</v>
       </c>
     </row>
     <row r="30">
@@ -1373,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.09887</v>
+        <v>-1.54844</v>
       </c>
     </row>
     <row r="31">
@@ -1381,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.09887</v>
+        <v>-1.54844</v>
       </c>
     </row>
     <row r="32">
@@ -1389,7 +1389,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>4.70276</v>
+        <v>2.35161</v>
       </c>
     </row>
     <row r="33">
@@ -1397,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>4.70276</v>
+        <v>2.35161</v>
       </c>
     </row>
     <row r="34">
@@ -1405,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-3.35557</v>
+        <v>-1.67714</v>
       </c>
     </row>
     <row r="35">
@@ -1413,7 +1413,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-3.35557</v>
+        <v>-1.67714</v>
       </c>
     </row>
     <row r="36">
@@ -1421,7 +1421,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-21.36723</v>
+        <v>-10.68403</v>
       </c>
     </row>
     <row r="37">
@@ -1429,7 +1429,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-21.36723</v>
+        <v>-10.68403</v>
       </c>
     </row>
     <row r="38">
@@ -1437,7 +1437,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.10915</v>
+        <v>3.05419</v>
       </c>
     </row>
     <row r="39">
@@ -1445,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>6.10915</v>
+        <v>3.05419</v>
       </c>
     </row>
     <row r="40">
@@ -1453,7 +1453,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.1256</v>
+        <v>-0.56334</v>
       </c>
     </row>
     <row r="41">
@@ -1461,7 +1461,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.1256</v>
+        <v>-0.56334</v>
       </c>
     </row>
     <row r="42">
@@ -1469,7 +1469,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.85362</v>
+        <v>-0.92604</v>
       </c>
     </row>
     <row r="43">
@@ -1477,7 +1477,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.85362</v>
+        <v>-0.92604</v>
       </c>
     </row>
     <row r="44">
@@ -1485,7 +1485,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-8.637829999999999</v>
+        <v>-4.31856</v>
       </c>
     </row>
     <row r="45">
@@ -1493,7 +1493,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-8.637829999999999</v>
+        <v>-4.31856</v>
       </c>
     </row>
     <row r="46">
@@ -1501,7 +1501,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-7.49533</v>
+        <v>-3.74723</v>
       </c>
     </row>
     <row r="47">
@@ -1509,7 +1509,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-7.49533</v>
+        <v>-3.74723</v>
       </c>
     </row>
     <row r="48">
@@ -1517,7 +1517,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.75926</v>
+        <v>0.37963</v>
       </c>
     </row>
     <row r="49">
@@ -1525,7 +1525,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.75926</v>
+        <v>0.37963</v>
       </c>
     </row>
     <row r="50">
@@ -1533,7 +1533,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.35713</v>
+        <v>-0.6785600000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1541,7 +1541,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.35713</v>
+        <v>-0.6785600000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1549,7 +1549,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-8.63702</v>
+        <v>-4.31851</v>
       </c>
     </row>
     <row r="53">
@@ -1557,7 +1557,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-8.63702</v>
+        <v>-4.31851</v>
       </c>
     </row>
     <row r="54">
@@ -1565,7 +1565,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>7.45686</v>
+        <v>3.72843</v>
       </c>
     </row>
     <row r="55">
@@ -1573,7 +1573,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>7.45686</v>
+        <v>3.72843</v>
       </c>
     </row>
     <row r="56">
@@ -1581,7 +1581,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-10.64268</v>
+        <v>-5.32171</v>
       </c>
     </row>
     <row r="57">
@@ -1589,7 +1589,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-10.64268</v>
+        <v>-5.32171</v>
       </c>
     </row>
     <row r="58">
@@ -1597,7 +1597,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>4.1617</v>
+        <v>2.08085</v>
       </c>
     </row>
     <row r="59">
@@ -1605,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>4.1617</v>
+        <v>2.08085</v>
       </c>
     </row>
     <row r="60">
@@ -1613,7 +1613,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.79674</v>
+        <v>-0.39934</v>
       </c>
     </row>
     <row r="61">
@@ -1621,7 +1621,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.79674</v>
+        <v>-0.39934</v>
       </c>
     </row>
     <row r="62">
@@ -1629,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-6.22326</v>
+        <v>-3.11163</v>
       </c>
     </row>
     <row r="63">
@@ -1637,7 +1637,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-6.22326</v>
+        <v>-3.11163</v>
       </c>
     </row>
     <row r="64">
@@ -1645,7 +1645,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>4.16168</v>
+        <v>2.08097</v>
       </c>
     </row>
     <row r="65">
@@ -1653,7 +1653,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>4.16168</v>
+        <v>2.08097</v>
       </c>
     </row>
     <row r="66">
@@ -1661,7 +1661,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.65232</v>
+        <v>0.32616</v>
       </c>
     </row>
     <row r="67">
@@ -1669,7 +1669,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.65232</v>
+        <v>0.32616</v>
       </c>
     </row>
     <row r="68">
@@ -1677,7 +1677,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-9.43355</v>
+        <v>-4.7165</v>
       </c>
     </row>
     <row r="69">
@@ -1685,7 +1685,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-9.43355</v>
+        <v>-4.7165</v>
       </c>
     </row>
     <row r="70">
@@ -1693,7 +1693,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>9.33596</v>
+        <v>4.66794</v>
       </c>
     </row>
     <row r="71">
@@ -1701,7 +1701,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>9.33596</v>
+        <v>4.66794</v>
       </c>
     </row>
     <row r="72">
@@ -1709,7 +1709,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>4.1</v>
+        <v>2.0499</v>
       </c>
     </row>
     <row r="73">
@@ -1717,7 +1717,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>4.1</v>
+        <v>2.0499</v>
       </c>
     </row>
     <row r="74">
@@ -1725,7 +1725,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09816</v>
+        <v>0.04693</v>
       </c>
     </row>
     <row r="75">
@@ -1733,7 +1733,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.09816</v>
+        <v>0.04693</v>
       </c>
     </row>
     <row r="76">
@@ -1741,7 +1741,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.43016</v>
+        <v>-0.71555</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.43016</v>
+        <v>-0.71555</v>
       </c>
     </row>
     <row r="78">
@@ -1757,7 +1757,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1.4668</v>
+        <v>0.73231</v>
       </c>
     </row>
     <row r="79">
@@ -1765,7 +1765,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-17.56412</v>
+        <v>-8.78223</v>
       </c>
     </row>
     <row r="80">
@@ -1773,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-17.56412</v>
+        <v>-8.78223</v>
       </c>
     </row>
     <row r="81">
@@ -1781,7 +1781,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-17.14748</v>
+        <v>-8.573740000000001</v>
       </c>
     </row>
     <row r="82">
@@ -1789,7 +1789,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-17.14748</v>
+        <v>-8.573740000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1828,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.023999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.27</v>
       </c>
     </row>
     <row r="3">
@@ -1839,10 +1839,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-9.023999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>25.27</v>
       </c>
     </row>
   </sheetData>
@@ -1892,10 +1892,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="4">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="5">
@@ -1925,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.00106</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="7">
@@ -1936,10 +1936,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.00106</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="8">
@@ -1947,10 +1947,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.00113</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1958,10 +1958,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.00113</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1969,10 +1969,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.00226</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.00049</v>
       </c>
     </row>
     <row r="11">
@@ -1980,10 +1980,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.00226</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.00049</v>
       </c>
     </row>
     <row r="12">
@@ -1991,10 +1991,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.00232</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="13">
@@ -2002,10 +2002,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.00232</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="14">
@@ -2013,10 +2013,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.00244</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="15">
@@ -2024,10 +2024,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.00244</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="16">
@@ -2035,10 +2035,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.00245</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="17">
@@ -2046,10 +2046,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.00245</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="18">
@@ -2057,10 +2057,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.00251</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="19">
@@ -2068,10 +2068,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.00251</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="20">
@@ -2079,10 +2079,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.00238</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="21">
@@ -2090,10 +2090,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.00238</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="22">
@@ -2101,10 +2101,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-0.00063</v>
       </c>
     </row>
     <row r="23">
@@ -2112,10 +2112,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-0.00063</v>
       </c>
     </row>
     <row r="24">
@@ -2123,10 +2123,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0.00162</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-0.00036</v>
       </c>
     </row>
     <row r="25">
@@ -2134,10 +2134,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.00162</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-0.00036</v>
       </c>
     </row>
     <row r="26">
@@ -2145,10 +2145,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.00134</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-0.00141</v>
       </c>
     </row>
     <row r="27">
@@ -2156,10 +2156,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.00134</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-0.00141</v>
       </c>
     </row>
     <row r="28">
@@ -2167,10 +2167,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-0.00095</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.00113</v>
       </c>
     </row>
     <row r="29">
@@ -2178,10 +2178,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.00095</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0.00113</v>
       </c>
     </row>
     <row r="30">
@@ -2189,10 +2189,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0.00073</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.00256</v>
       </c>
     </row>
     <row r="31">
@@ -2200,10 +2200,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.00073</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-0.00256</v>
       </c>
     </row>
     <row r="32">
@@ -2211,10 +2211,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-0.00032</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-0.00345</v>
       </c>
     </row>
     <row r="33">
@@ -2222,10 +2222,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-0.00345</v>
       </c>
     </row>
     <row r="34">
@@ -2233,10 +2233,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-0.00234</v>
       </c>
     </row>
     <row r="35">
@@ -2244,10 +2244,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0.00234</v>
       </c>
     </row>
     <row r="36">
@@ -2255,10 +2255,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-0.00418</v>
       </c>
     </row>
     <row r="37">
@@ -2266,10 +2266,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-0.00418</v>
       </c>
     </row>
     <row r="38">
@@ -2277,10 +2277,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-0.00439</v>
       </c>
     </row>
     <row r="39">
@@ -2288,10 +2288,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0.00333</v>
       </c>
     </row>
     <row r="40">
@@ -2299,10 +2299,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-4e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-0.00333</v>
       </c>
     </row>
     <row r="41">
@@ -2310,10 +2310,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0.00414</v>
       </c>
     </row>
     <row r="42">
@@ -2321,10 +2321,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-0.00414</v>
       </c>
     </row>
     <row r="43">
@@ -2332,10 +2332,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-0.00438</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-16.22166</v>
       </c>
     </row>
     <row r="5">
@@ -2393,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.00068</v>
       </c>
     </row>
     <row r="6">
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.00068</v>
       </c>
     </row>
     <row r="7">
@@ -2409,7 +2409,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-16.22166</v>
       </c>
     </row>
     <row r="8">
@@ -2417,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-11.27333</v>
       </c>
     </row>
     <row r="9">
@@ -2425,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-11.27333</v>
       </c>
     </row>
     <row r="10">
@@ -2433,7 +2433,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.14585</v>
       </c>
     </row>
     <row r="11">
@@ -2441,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.14585</v>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-22.74727</v>
       </c>
     </row>
     <row r="13">
@@ -2457,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-22.74727</v>
       </c>
     </row>
     <row r="14">
@@ -2465,7 +2465,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.08811</v>
       </c>
     </row>
     <row r="15">
@@ -2473,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8.08811</v>
       </c>
     </row>
     <row r="16">
@@ -2481,7 +2481,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-8.63837</v>
       </c>
     </row>
     <row r="17">
@@ -2489,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.63837</v>
       </c>
     </row>
     <row r="18">
@@ -2497,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-3.57046</v>
       </c>
     </row>
     <row r="19">
@@ -2505,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-3.57046</v>
       </c>
     </row>
     <row r="20">
@@ -2513,7 +2513,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-22.7465</v>
       </c>
     </row>
     <row r="21">
@@ -2521,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-22.7465</v>
       </c>
     </row>
     <row r="22">
@@ -2529,7 +2529,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.62233</v>
       </c>
     </row>
     <row r="23">
@@ -2537,7 +2537,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.62233</v>
       </c>
     </row>
     <row r="24">
@@ -2545,7 +2545,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2.32636</v>
       </c>
     </row>
     <row r="25">
@@ -2553,7 +2553,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2.32636</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.759</v>
       </c>
     </row>
     <row r="27">
@@ -2569,7 +2569,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-1.759</v>
       </c>
     </row>
     <row r="28">
@@ -2577,7 +2577,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-21.36709</v>
       </c>
     </row>
     <row r="29">
@@ -2585,7 +2585,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-21.36709</v>
       </c>
     </row>
     <row r="30">
@@ -2593,7 +2593,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-3.09887</v>
       </c>
     </row>
     <row r="31">
@@ -2601,7 +2601,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-3.09887</v>
       </c>
     </row>
     <row r="32">
@@ -2609,7 +2609,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>4.70276</v>
       </c>
     </row>
     <row r="33">
@@ -2617,7 +2617,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>4.70276</v>
       </c>
     </row>
     <row r="34">
@@ -2625,7 +2625,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-3.35557</v>
       </c>
     </row>
     <row r="35">
@@ -2633,7 +2633,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-3.35557</v>
       </c>
     </row>
     <row r="36">
@@ -2641,7 +2641,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-21.36723</v>
       </c>
     </row>
     <row r="37">
@@ -2649,7 +2649,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-21.36723</v>
       </c>
     </row>
     <row r="38">
@@ -2657,7 +2657,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.10915</v>
       </c>
     </row>
     <row r="39">
@@ -2665,7 +2665,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>6.10915</v>
       </c>
     </row>
     <row r="40">
@@ -2673,7 +2673,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.1256</v>
       </c>
     </row>
     <row r="41">
@@ -2681,7 +2681,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.1256</v>
       </c>
     </row>
     <row r="42">
@@ -2689,7 +2689,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-1.85362</v>
       </c>
     </row>
     <row r="43">
@@ -2697,7 +2697,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.85362</v>
       </c>
     </row>
     <row r="44">
@@ -2705,7 +2705,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-8.637829999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2713,7 +2713,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>-8.637829999999999</v>
       </c>
     </row>
     <row r="46">
@@ -2721,7 +2721,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-7.49533</v>
       </c>
     </row>
     <row r="47">
@@ -2729,7 +2729,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>-7.49533</v>
       </c>
     </row>
     <row r="48">
@@ -2737,7 +2737,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.75926</v>
       </c>
     </row>
     <row r="49">
@@ -2745,7 +2745,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.75926</v>
       </c>
     </row>
     <row r="50">
@@ -2753,7 +2753,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-1.35713</v>
       </c>
     </row>
     <row r="51">
@@ -2761,7 +2761,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>-1.35713</v>
       </c>
     </row>
     <row r="52">
@@ -2769,7 +2769,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>-8.63702</v>
       </c>
     </row>
     <row r="53">
@@ -2777,7 +2777,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>-8.63702</v>
       </c>
     </row>
     <row r="54">
@@ -2785,7 +2785,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>7.45686</v>
       </c>
     </row>
     <row r="55">
@@ -2793,7 +2793,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>7.45686</v>
       </c>
     </row>
     <row r="56">
@@ -2801,7 +2801,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>-10.64268</v>
       </c>
     </row>
     <row r="57">
@@ -2809,7 +2809,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>-10.64268</v>
       </c>
     </row>
     <row r="58">
@@ -2817,7 +2817,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>4.1617</v>
       </c>
     </row>
     <row r="59">
@@ -2825,7 +2825,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>4.1617</v>
       </c>
     </row>
     <row r="60">
@@ -2833,7 +2833,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-0.79674</v>
       </c>
     </row>
     <row r="61">
@@ -2841,7 +2841,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>-0.79674</v>
       </c>
     </row>
     <row r="62">
@@ -2849,7 +2849,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-6.22326</v>
       </c>
     </row>
     <row r="63">
@@ -2857,7 +2857,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>-6.22326</v>
       </c>
     </row>
     <row r="64">
@@ -2865,7 +2865,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>4.16168</v>
       </c>
     </row>
     <row r="65">
@@ -2873,7 +2873,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>4.16168</v>
       </c>
     </row>
     <row r="66">
@@ -2881,7 +2881,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.65232</v>
       </c>
     </row>
     <row r="67">
@@ -2889,7 +2889,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.65232</v>
       </c>
     </row>
     <row r="68">
@@ -2897,7 +2897,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>-9.43355</v>
       </c>
     </row>
     <row r="69">
@@ -2905,7 +2905,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-9.43355</v>
       </c>
     </row>
     <row r="70">
@@ -2913,7 +2913,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>9.33596</v>
       </c>
     </row>
     <row r="71">
@@ -2921,7 +2921,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>9.33596</v>
       </c>
     </row>
     <row r="72">
@@ -2929,7 +2929,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="73">
@@ -2937,7 +2937,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="74">
@@ -2945,7 +2945,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.09816</v>
       </c>
     </row>
     <row r="75">
@@ -2953,7 +2953,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.09816</v>
       </c>
     </row>
     <row r="76">
@@ -2961,7 +2961,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>-1.43016</v>
       </c>
     </row>
     <row r="77">
@@ -2969,7 +2969,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>-1.43016</v>
       </c>
     </row>
     <row r="78">
@@ -2977,7 +2977,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1.4668</v>
       </c>
     </row>
     <row r="79">
@@ -2985,7 +2985,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>-17.56412</v>
       </c>
     </row>
     <row r="80">
@@ -2993,7 +2993,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>-17.56412</v>
       </c>
     </row>
     <row r="81">
@@ -3001,7 +3001,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>-17.14748</v>
       </c>
     </row>
     <row r="82">
@@ -3009,7 +3009,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>-17.14748</v>
       </c>
     </row>
   </sheetData>
@@ -5488,10 +5488,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.621</v>
+        <v>0.431</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.77</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
@@ -5499,10 +5499,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5.621</v>
+        <v>-0.431</v>
       </c>
       <c r="C3" t="n">
-        <v>-47.77</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00081</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="4">
@@ -9276,10 +9276,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00081</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9298,10 +9298,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00152</v>
+        <v>-5e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009300000000000001</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="7">
@@ -9309,10 +9309,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00152</v>
+        <v>5e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009300000000000001</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9320,10 +9320,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0016</v>
+        <v>-5e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0016</v>
+        <v>5e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -9342,10 +9342,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00175</v>
+        <v>-0.0001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00106</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="11">
@@ -9353,10 +9353,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00175</v>
+        <v>0.0001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00106</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="12">
@@ -9364,10 +9364,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00183</v>
+        <v>-0.0001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00082</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="13">
@@ -9375,10 +9375,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00183</v>
+        <v>0.0001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00082</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="14">
@@ -9386,10 +9386,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.00226</v>
+        <v>-0.00011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00135</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="15">
@@ -9397,10 +9397,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00226</v>
+        <v>0.00011</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00135</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="16">
@@ -9408,10 +9408,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00229</v>
+        <v>-0.00011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00129</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="17">
@@ -9419,10 +9419,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00229</v>
+        <v>0.00011</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00129</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="18">
@@ -9430,10 +9430,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00176</v>
+        <v>-0.00011</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00121</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="19">
@@ -9441,10 +9441,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00176</v>
+        <v>0.00011</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00121</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="20">
@@ -9452,10 +9452,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00173</v>
+        <v>-0.00011</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00126</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="21">
@@ -9463,10 +9463,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00173</v>
+        <v>0.00011</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00126</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="22">
@@ -9474,10 +9474,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.00175</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00139</v>
+        <v>-3e-05</v>
       </c>
     </row>
     <row r="23">
@@ -9485,10 +9485,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00175</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00139</v>
+        <v>-3e-05</v>
       </c>
     </row>
     <row r="24">
@@ -9496,10 +9496,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00167</v>
+        <v>-6.999999999999999e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00149</v>
+        <v>-2e-05</v>
       </c>
     </row>
     <row r="25">
@@ -9507,10 +9507,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00167</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00149</v>
+        <v>-2e-05</v>
       </c>
     </row>
     <row r="26">
@@ -9518,10 +9518,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.00109</v>
+        <v>-6e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0009</v>
+        <v>-6e-05</v>
       </c>
     </row>
     <row r="27">
@@ -9529,10 +9529,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00109</v>
+        <v>6e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0009</v>
+        <v>-6e-05</v>
       </c>
     </row>
     <row r="28">
@@ -9540,10 +9540,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00096</v>
+        <v>-4e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00101</v>
+        <v>-5e-05</v>
       </c>
     </row>
     <row r="29">
@@ -9551,10 +9551,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00096</v>
+        <v>4e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00101</v>
+        <v>-5e-05</v>
       </c>
     </row>
     <row r="30">
@@ -9562,10 +9562,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00094</v>
+        <v>-3e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00103</v>
+        <v>-0.00012</v>
       </c>
     </row>
     <row r="31">
@@ -9573,10 +9573,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00094</v>
+        <v>3e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00103</v>
+        <v>-0.00012</v>
       </c>
     </row>
     <row r="32">
@@ -9584,10 +9584,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00044</v>
+        <v>-1e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00041</v>
+        <v>-0.00016</v>
       </c>
     </row>
     <row r="33">
@@ -9595,10 +9595,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00044</v>
+        <v>1e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00041</v>
+        <v>-0.00016</v>
       </c>
     </row>
     <row r="34">
@@ -9606,10 +9606,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00081</v>
+        <v>-1e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00112</v>
+        <v>-0.00011</v>
       </c>
     </row>
     <row r="35">
@@ -9617,10 +9617,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00081</v>
+        <v>1e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00112</v>
+        <v>-0.00011</v>
       </c>
     </row>
     <row r="36">
@@ -9628,10 +9628,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.00028</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00068</v>
+        <v>-0.00019</v>
       </c>
     </row>
     <row r="37">
@@ -9639,10 +9639,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00068</v>
+        <v>-0.00019</v>
       </c>
     </row>
     <row r="38">
@@ -9653,7 +9653,7 @@
         <v>-0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00018</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="39">
@@ -9661,10 +9661,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.00033</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00046</v>
+        <v>-0.00015</v>
       </c>
     </row>
     <row r="40">
@@ -9672,10 +9672,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00033</v>
+        <v>-0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00046</v>
+        <v>-0.00015</v>
       </c>
     </row>
     <row r="41">
@@ -9683,10 +9683,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00021</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0007</v>
+        <v>-0.00019</v>
       </c>
     </row>
     <row r="42">
@@ -9694,10 +9694,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00021</v>
+        <v>-0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0007</v>
+        <v>-0.00019</v>
       </c>
     </row>
     <row r="43">
@@ -9708,7 +9708,7 @@
         <v>-0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002</v>
+        <v>-0.0002</v>
       </c>
     </row>
   </sheetData>
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.00218</v>
       </c>
     </row>
     <row r="3">
@@ -10917,7 +10917,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.00218</v>
       </c>
     </row>
     <row r="4">
@@ -10925,7 +10925,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.29358</v>
+        <v>-0.78692</v>
       </c>
     </row>
     <row r="5">
@@ -10933,7 +10933,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>0.02065</v>
       </c>
     </row>
     <row r="6">
@@ -10941,7 +10941,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>0.02065</v>
       </c>
     </row>
     <row r="7">
@@ -10949,7 +10949,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.29358</v>
+        <v>-0.78692</v>
       </c>
     </row>
     <row r="8">
@@ -10957,7 +10957,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.19307</v>
+        <v>-0.48081</v>
       </c>
     </row>
     <row r="9">
@@ -10965,7 +10965,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.19307</v>
+        <v>-0.48081</v>
       </c>
     </row>
     <row r="10">
@@ -10973,7 +10973,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5857</v>
+        <v>0.06412</v>
       </c>
     </row>
     <row r="11">
@@ -10981,7 +10981,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5857</v>
+        <v>0.06412</v>
       </c>
     </row>
     <row r="12">
@@ -10989,7 +10989,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.9415</v>
+        <v>-1.03999</v>
       </c>
     </row>
     <row r="13">
@@ -10997,7 +10997,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.9415</v>
+        <v>-1.03999</v>
       </c>
     </row>
     <row r="14">
@@ -11005,7 +11005,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.19394</v>
+        <v>0.41807</v>
       </c>
     </row>
     <row r="15">
@@ -11013,7 +11013,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.19394</v>
+        <v>0.41807</v>
       </c>
     </row>
     <row r="16">
@@ -11021,7 +11021,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.18883</v>
+        <v>-0.4312</v>
       </c>
     </row>
     <row r="17">
@@ -11029,7 +11029,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.18883</v>
+        <v>-0.4312</v>
       </c>
     </row>
     <row r="18">
@@ -11037,7 +11037,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.24554</v>
+        <v>-0.1526</v>
       </c>
     </row>
     <row r="19">
@@ -11045,7 +11045,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.24554</v>
+        <v>-0.1526</v>
       </c>
     </row>
     <row r="20">
@@ -11053,7 +11053,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>7.94151</v>
+        <v>-1.00973</v>
       </c>
     </row>
     <row r="21">
@@ -11061,7 +11061,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>7.94151</v>
+        <v>-1.00973</v>
       </c>
     </row>
     <row r="22">
@@ -11069,7 +11069,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.98164</v>
+        <v>-0.12437</v>
       </c>
     </row>
     <row r="23">
@@ -11077,7 +11077,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>3.98164</v>
+        <v>-0.12437</v>
       </c>
     </row>
     <row r="24">
@@ -11085,7 +11085,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>37.09949</v>
+        <v>0.12718</v>
       </c>
     </row>
     <row r="25">
@@ -11093,7 +11093,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>37.09949</v>
+        <v>0.12718</v>
       </c>
     </row>
     <row r="26">
@@ -11101,7 +11101,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.69632</v>
+        <v>-0.04618</v>
       </c>
     </row>
     <row r="27">
@@ -11109,7 +11109,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.69632</v>
+        <v>-0.04618</v>
       </c>
     </row>
     <row r="28">
@@ -11117,7 +11117,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>15.10248</v>
+        <v>-0.97803</v>
       </c>
     </row>
     <row r="29">
@@ -11125,7 +11125,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>15.10248</v>
+        <v>-0.97803</v>
       </c>
     </row>
     <row r="30">
@@ -11133,7 +11133,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.67251</v>
+        <v>-0.09236999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -11141,7 +11141,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.67251</v>
+        <v>-0.09236999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -11149,7 +11149,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>37.1017</v>
+        <v>0.17104</v>
       </c>
     </row>
     <row r="33">
@@ -11157,7 +11157,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>37.1017</v>
+        <v>0.17104</v>
       </c>
     </row>
     <row r="34">
@@ -11165,7 +11165,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>2.37045</v>
+        <v>-0.13515</v>
       </c>
     </row>
     <row r="35">
@@ -11173,7 +11173,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>2.37045</v>
+        <v>-0.13515</v>
       </c>
     </row>
     <row r="36">
@@ -11181,7 +11181,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>15.10282</v>
+        <v>-0.95396</v>
       </c>
     </row>
     <row r="37">
@@ -11189,7 +11189,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>15.10282</v>
+        <v>-0.95396</v>
       </c>
     </row>
     <row r="38">
@@ -11197,7 +11197,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>3.26669</v>
+        <v>0.2327</v>
       </c>
     </row>
     <row r="39">
@@ -11205,7 +11205,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>3.26669</v>
+        <v>0.2327</v>
       </c>
     </row>
     <row r="40">
@@ -11213,7 +11213,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>31.08096</v>
+        <v>-0.0392</v>
       </c>
     </row>
     <row r="41">
@@ -11221,7 +11221,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>31.08096</v>
+        <v>-0.0392</v>
       </c>
     </row>
     <row r="42">
@@ -11229,7 +11229,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>2.64406</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="43">
@@ -11237,7 +11237,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2.64406</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="44">
@@ -11245,7 +11245,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>20.78158</v>
+        <v>-0.40213</v>
       </c>
     </row>
     <row r="45">
@@ -11253,7 +11253,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>20.78158</v>
+        <v>-0.40213</v>
       </c>
     </row>
     <row r="46">
@@ -11261,7 +11261,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.80229</v>
+        <v>-0.3022</v>
       </c>
     </row>
     <row r="47">
@@ -11269,7 +11269,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.80229</v>
+        <v>-0.3022</v>
       </c>
     </row>
     <row r="48">
@@ -11277,7 +11277,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>31.07934</v>
+        <v>-0.00391</v>
       </c>
     </row>
     <row r="49">
@@ -11285,7 +11285,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>31.07934</v>
+        <v>-0.00391</v>
       </c>
     </row>
     <row r="50">
@@ -11293,7 +11293,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>3.26129</v>
+        <v>-0.03739</v>
       </c>
     </row>
     <row r="51">
@@ -11301,7 +11301,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>3.26129</v>
+        <v>-0.03739</v>
       </c>
     </row>
     <row r="52">
@@ -11309,7 +11309,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>20.78141</v>
+        <v>-0.3859</v>
       </c>
     </row>
     <row r="53">
@@ -11317,7 +11317,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>20.78141</v>
+        <v>-0.3859</v>
       </c>
     </row>
     <row r="54">
@@ -11325,7 +11325,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>2.24227</v>
+        <v>0.30749</v>
       </c>
     </row>
     <row r="55">
@@ -11333,7 +11333,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2.24227</v>
+        <v>0.30749</v>
       </c>
     </row>
     <row r="56">
@@ -11341,7 +11341,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>26.70547</v>
+        <v>-0.4787</v>
       </c>
     </row>
     <row r="57">
@@ -11349,7 +11349,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>26.70547</v>
+        <v>-0.4787</v>
       </c>
     </row>
     <row r="58">
@@ -11357,7 +11357,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>24.41892</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="59">
@@ -11365,7 +11365,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>24.41892</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="60">
@@ -11373,7 +11373,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>3.3294</v>
+        <v>0.02815</v>
       </c>
     </row>
     <row r="61">
@@ -11381,7 +11381,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>3.3294</v>
+        <v>0.02815</v>
       </c>
     </row>
     <row r="62">
@@ -11389,7 +11389,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.64646</v>
+        <v>-0.25936</v>
       </c>
     </row>
     <row r="63">
@@ -11397,7 +11397,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.64646</v>
+        <v>-0.25936</v>
       </c>
     </row>
     <row r="64">
@@ -11405,7 +11405,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>24.41964</v>
+        <v>0.18654</v>
       </c>
     </row>
     <row r="65">
@@ -11413,7 +11413,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>24.41964</v>
+        <v>0.18654</v>
       </c>
     </row>
     <row r="66">
@@ -11421,7 +11421,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>3.83331</v>
+        <v>0.05706</v>
       </c>
     </row>
     <row r="67">
@@ -11429,7 +11429,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>3.83331</v>
+        <v>0.05706</v>
       </c>
     </row>
     <row r="68">
@@ -11437,7 +11437,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>26.70304</v>
+        <v>-0.45569</v>
       </c>
     </row>
     <row r="69">
@@ -11445,7 +11445,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>26.70304</v>
+        <v>-0.45569</v>
       </c>
     </row>
     <row r="70">
@@ -11453,7 +11453,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>25.6648</v>
+        <v>0.41433</v>
       </c>
     </row>
     <row r="71">
@@ -11461,7 +11461,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>25.6648</v>
+        <v>0.41433</v>
       </c>
     </row>
     <row r="72">
@@ -11469,7 +11469,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.99332</v>
+        <v>0.17218</v>
       </c>
     </row>
     <row r="73">
@@ -11477,7 +11477,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.99332</v>
+        <v>0.17218</v>
       </c>
     </row>
     <row r="74">
@@ -11485,7 +11485,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>3.69215</v>
+        <v>0.07503</v>
       </c>
     </row>
     <row r="75">
@@ -11493,7 +11493,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>3.69215</v>
+        <v>0.07503</v>
       </c>
     </row>
     <row r="76">
@@ -11501,7 +11501,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.33661</v>
+        <v>-0.06033</v>
       </c>
     </row>
     <row r="77">
@@ -11509,7 +11509,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.33661</v>
+        <v>-0.06033</v>
       </c>
     </row>
     <row r="78">
@@ -11517,7 +11517,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>4.02772</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="79">
@@ -11525,7 +11525,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>24.40867</v>
+        <v>-0.80311</v>
       </c>
     </row>
     <row r="80">
@@ -11533,7 +11533,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>24.40867</v>
+        <v>-0.80311</v>
       </c>
     </row>
     <row r="81">
@@ -11541,7 +11541,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>24.4119</v>
+        <v>-0.79405</v>
       </c>
     </row>
     <row r="82">
@@ -11549,7 +11549,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>24.4119</v>
+        <v>-0.79405</v>
       </c>
     </row>
   </sheetData>
@@ -11588,10 +11588,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.512</v>
+        <v>-5.621</v>
       </c>
       <c r="C2" t="n">
-        <v>12.635</v>
+        <v>-47.77</v>
       </c>
     </row>
     <row r="3">
@@ -11599,10 +11599,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.512</v>
+        <v>5.621</v>
       </c>
       <c r="C3" t="n">
-        <v>12.635</v>
+        <v>-47.77</v>
       </c>
     </row>
   </sheetData>
@@ -11655,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00017</v>
+        <v>0.00081</v>
       </c>
     </row>
     <row r="4">
@@ -11666,7 +11666,7 @@
         <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00017</v>
+        <v>0.00081</v>
       </c>
     </row>
     <row r="5">
@@ -11685,10 +11685,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00053</v>
+        <v>-0.00152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00021</v>
+        <v>0.0009300000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -11696,10 +11696,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00053</v>
+        <v>0.00152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00021</v>
+        <v>0.0009300000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -11707,10 +11707,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00056</v>
+        <v>-0.0016</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="9">
@@ -11718,10 +11718,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00056</v>
+        <v>0.0016</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="10">
@@ -11729,10 +11729,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00113</v>
+        <v>-0.00175</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00024</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="11">
@@ -11740,10 +11740,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00113</v>
+        <v>0.00175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00024</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="12">
@@ -11751,10 +11751,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00116</v>
+        <v>-0.00183</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00012</v>
+        <v>0.00082</v>
       </c>
     </row>
     <row r="13">
@@ -11762,10 +11762,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00116</v>
+        <v>0.00183</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00012</v>
+        <v>0.00082</v>
       </c>
     </row>
     <row r="14">
@@ -11773,10 +11773,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.00122</v>
+        <v>-0.00226</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00017</v>
+        <v>0.00135</v>
       </c>
     </row>
     <row r="15">
@@ -11784,10 +11784,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00122</v>
+        <v>0.00226</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00017</v>
+        <v>0.00135</v>
       </c>
     </row>
     <row r="16">
@@ -11795,10 +11795,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00123</v>
+        <v>-0.00229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00015</v>
+        <v>0.00129</v>
       </c>
     </row>
     <row r="17">
@@ -11806,10 +11806,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00123</v>
+        <v>0.00229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00015</v>
+        <v>0.00129</v>
       </c>
     </row>
     <row r="18">
@@ -11817,10 +11817,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00125</v>
+        <v>-0.00176</v>
       </c>
       <c r="C18" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00121</v>
       </c>
     </row>
     <row r="19">
@@ -11828,10 +11828,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00125</v>
+        <v>0.00176</v>
       </c>
       <c r="C19" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00121</v>
       </c>
     </row>
     <row r="20">
@@ -11839,10 +11839,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00119</v>
+        <v>-0.00173</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00015</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="21">
@@ -11850,10 +11850,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00119</v>
+        <v>0.00173</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00015</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="22">
@@ -11861,10 +11861,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.00095</v>
+        <v>-0.00175</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00031</v>
+        <v>0.00139</v>
       </c>
     </row>
     <row r="23">
@@ -11872,10 +11872,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00095</v>
+        <v>0.00175</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00031</v>
+        <v>0.00139</v>
       </c>
     </row>
     <row r="24">
@@ -11883,10 +11883,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00081</v>
+        <v>-0.00167</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.00018</v>
+        <v>0.00149</v>
       </c>
     </row>
     <row r="25">
@@ -11894,10 +11894,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00081</v>
+        <v>0.00167</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00018</v>
+        <v>0.00149</v>
       </c>
     </row>
     <row r="26">
@@ -11905,10 +11905,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.00067</v>
+        <v>-0.00109</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0007</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="27">
@@ -11916,10 +11916,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00067</v>
+        <v>0.00109</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0007</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="28">
@@ -11927,10 +11927,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00048</v>
+        <v>-0.00096</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00057</v>
+        <v>0.00101</v>
       </c>
     </row>
     <row r="29">
@@ -11938,10 +11938,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00048</v>
+        <v>0.00096</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00057</v>
+        <v>0.00101</v>
       </c>
     </row>
     <row r="30">
@@ -11949,10 +11949,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00036</v>
+        <v>-0.00094</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00128</v>
+        <v>0.00103</v>
       </c>
     </row>
     <row r="31">
@@ -11960,10 +11960,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00036</v>
+        <v>0.00094</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.00128</v>
+        <v>0.00103</v>
       </c>
     </row>
     <row r="32">
@@ -11971,10 +11971,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00016</v>
+        <v>-0.00044</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.00172</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="33">
@@ -11982,10 +11982,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00016</v>
+        <v>0.00044</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.00172</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="34">
@@ -11993,10 +11993,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00015</v>
+        <v>-0.00081</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.00117</v>
+        <v>0.00112</v>
       </c>
     </row>
     <row r="35">
@@ -12004,10 +12004,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00015</v>
+        <v>0.00081</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00117</v>
+        <v>0.00112</v>
       </c>
     </row>
     <row r="36">
@@ -12015,10 +12015,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-5e-05</v>
+        <v>-0.00028</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00209</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="37">
@@ -12026,10 +12026,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>5e-05</v>
+        <v>0.00028</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00209</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="38">
@@ -12037,10 +12037,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0022</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="39">
@@ -12048,10 +12048,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>2e-05</v>
+        <v>-0.00033</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00166</v>
+        <v>0.00046</v>
       </c>
     </row>
     <row r="40">
@@ -12059,10 +12059,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-2e-05</v>
+        <v>0.00033</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00166</v>
+        <v>0.00046</v>
       </c>
     </row>
     <row r="41">
@@ -12070,10 +12070,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>5e-05</v>
+        <v>-0.00021</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.00207</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="42">
@@ -12081,10 +12081,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-5e-05</v>
+        <v>0.00021</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00207</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="43">
@@ -12092,10 +12092,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.00219</v>
+        <v>0.0002</v>
       </c>
     </row>
   </sheetData>
@@ -12145,7 +12145,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.11059</v>
+        <v>4.29358</v>
       </c>
     </row>
     <row r="5">
@@ -12153,7 +12153,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003</v>
+        <v>-6.999999999999999e-05</v>
       </c>
     </row>
     <row r="6">
@@ -12161,7 +12161,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003</v>
+        <v>-6.999999999999999e-05</v>
       </c>
     </row>
     <row r="7">
@@ -12169,7 +12169,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.11059</v>
+        <v>4.29358</v>
       </c>
     </row>
     <row r="8">
@@ -12177,7 +12177,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.63667</v>
+        <v>44.19307</v>
       </c>
     </row>
     <row r="9">
@@ -12185,7 +12185,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.63667</v>
+        <v>44.19307</v>
       </c>
     </row>
     <row r="10">
@@ -12193,7 +12193,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.574</v>
+        <v>0.5857</v>
       </c>
     </row>
     <row r="11">
@@ -12201,7 +12201,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.574</v>
+        <v>0.5857</v>
       </c>
     </row>
     <row r="12">
@@ -12209,7 +12209,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-11.37376</v>
+        <v>7.9415</v>
       </c>
     </row>
     <row r="13">
@@ -12217,7 +12217,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-11.37376</v>
+        <v>7.9415</v>
       </c>
     </row>
     <row r="14">
@@ -12225,7 +12225,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4.04452</v>
+        <v>-4.19394</v>
       </c>
     </row>
     <row r="15">
@@ -12233,7 +12233,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.04452</v>
+        <v>-4.19394</v>
       </c>
     </row>
     <row r="16">
@@ -12241,7 +12241,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.31834</v>
+        <v>44.18883</v>
       </c>
     </row>
     <row r="17">
@@ -12249,7 +12249,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.31834</v>
+        <v>44.18883</v>
       </c>
     </row>
     <row r="18">
@@ -12257,7 +12257,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.78593</v>
+        <v>1.24554</v>
       </c>
     </row>
     <row r="19">
@@ -12265,7 +12265,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.78593</v>
+        <v>1.24554</v>
       </c>
     </row>
     <row r="20">
@@ -12273,7 +12273,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-11.37396</v>
+        <v>7.94151</v>
       </c>
     </row>
     <row r="21">
@@ -12281,7 +12281,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-11.37396</v>
+        <v>7.94151</v>
       </c>
     </row>
     <row r="22">
@@ -12289,7 +12289,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.8125</v>
+        <v>3.98164</v>
       </c>
     </row>
     <row r="23">
@@ -12297,7 +12297,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.8125</v>
+        <v>3.98164</v>
       </c>
     </row>
     <row r="24">
@@ -12305,7 +12305,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.16253</v>
+        <v>37.09949</v>
       </c>
     </row>
     <row r="25">
@@ -12313,7 +12313,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.16253</v>
+        <v>37.09949</v>
       </c>
     </row>
     <row r="26">
@@ -12321,7 +12321,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.88095</v>
+        <v>1.69632</v>
       </c>
     </row>
     <row r="27">
@@ -12329,7 +12329,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.88095</v>
+        <v>1.69632</v>
       </c>
     </row>
     <row r="28">
@@ -12337,7 +12337,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-10.6828</v>
+        <v>15.10248</v>
       </c>
     </row>
     <row r="29">
@@ -12345,7 +12345,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-10.6828</v>
+        <v>15.10248</v>
       </c>
     </row>
     <row r="30">
@@ -12353,7 +12353,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.54844</v>
+        <v>-3.67251</v>
       </c>
     </row>
     <row r="31">
@@ -12361,7 +12361,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.54844</v>
+        <v>-3.67251</v>
       </c>
     </row>
     <row r="32">
@@ -12369,7 +12369,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>2.35161</v>
+        <v>37.1017</v>
       </c>
     </row>
     <row r="33">
@@ -12377,7 +12377,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>2.35161</v>
+        <v>37.1017</v>
       </c>
     </row>
     <row r="34">
@@ -12385,7 +12385,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.67714</v>
+        <v>2.37045</v>
       </c>
     </row>
     <row r="35">
@@ -12393,7 +12393,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.67714</v>
+        <v>2.37045</v>
       </c>
     </row>
     <row r="36">
@@ -12401,7 +12401,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-10.68403</v>
+        <v>15.10282</v>
       </c>
     </row>
     <row r="37">
@@ -12409,7 +12409,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-10.68403</v>
+        <v>15.10282</v>
       </c>
     </row>
     <row r="38">
@@ -12417,7 +12417,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>3.05419</v>
+        <v>3.26669</v>
       </c>
     </row>
     <row r="39">
@@ -12425,7 +12425,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>3.05419</v>
+        <v>3.26669</v>
       </c>
     </row>
     <row r="40">
@@ -12433,7 +12433,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.56334</v>
+        <v>31.08096</v>
       </c>
     </row>
     <row r="41">
@@ -12441,7 +12441,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.56334</v>
+        <v>31.08096</v>
       </c>
     </row>
     <row r="42">
@@ -12449,7 +12449,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.92604</v>
+        <v>2.64406</v>
       </c>
     </row>
     <row r="43">
@@ -12457,7 +12457,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.92604</v>
+        <v>2.64406</v>
       </c>
     </row>
     <row r="44">
@@ -12465,7 +12465,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-4.31856</v>
+        <v>20.78158</v>
       </c>
     </row>
     <row r="45">
@@ -12473,7 +12473,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-4.31856</v>
+        <v>20.78158</v>
       </c>
     </row>
     <row r="46">
@@ -12481,7 +12481,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-3.74723</v>
+        <v>-2.80229</v>
       </c>
     </row>
     <row r="47">
@@ -12489,7 +12489,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-3.74723</v>
+        <v>-2.80229</v>
       </c>
     </row>
     <row r="48">
@@ -12497,7 +12497,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.37963</v>
+        <v>31.07934</v>
       </c>
     </row>
     <row r="49">
@@ -12505,7 +12505,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.37963</v>
+        <v>31.07934</v>
       </c>
     </row>
     <row r="50">
@@ -12513,7 +12513,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.6785600000000001</v>
+        <v>3.26129</v>
       </c>
     </row>
     <row r="51">
@@ -12521,7 +12521,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.6785600000000001</v>
+        <v>3.26129</v>
       </c>
     </row>
     <row r="52">
@@ -12529,7 +12529,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.31851</v>
+        <v>20.78141</v>
       </c>
     </row>
     <row r="53">
@@ -12537,7 +12537,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.31851</v>
+        <v>20.78141</v>
       </c>
     </row>
     <row r="54">
@@ -12545,7 +12545,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>3.72843</v>
+        <v>2.24227</v>
       </c>
     </row>
     <row r="55">
@@ -12553,7 +12553,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>3.72843</v>
+        <v>2.24227</v>
       </c>
     </row>
     <row r="56">
@@ -12561,7 +12561,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.32171</v>
+        <v>26.70547</v>
       </c>
     </row>
     <row r="57">
@@ -12569,7 +12569,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.32171</v>
+        <v>26.70547</v>
       </c>
     </row>
     <row r="58">
@@ -12577,7 +12577,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>2.08085</v>
+        <v>24.41892</v>
       </c>
     </row>
     <row r="59">
@@ -12585,7 +12585,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>2.08085</v>
+        <v>24.41892</v>
       </c>
     </row>
     <row r="60">
@@ -12593,7 +12593,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.39934</v>
+        <v>3.3294</v>
       </c>
     </row>
     <row r="61">
@@ -12601,7 +12601,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.39934</v>
+        <v>3.3294</v>
       </c>
     </row>
     <row r="62">
@@ -12609,7 +12609,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-3.11163</v>
+        <v>-1.64646</v>
       </c>
     </row>
     <row r="63">
@@ -12617,7 +12617,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.11163</v>
+        <v>-1.64646</v>
       </c>
     </row>
     <row r="64">
@@ -12625,7 +12625,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>2.08097</v>
+        <v>24.41964</v>
       </c>
     </row>
     <row r="65">
@@ -12633,7 +12633,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>2.08097</v>
+        <v>24.41964</v>
       </c>
     </row>
     <row r="66">
@@ -12641,7 +12641,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32616</v>
+        <v>3.83331</v>
       </c>
     </row>
     <row r="67">
@@ -12649,7 +12649,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.32616</v>
+        <v>3.83331</v>
       </c>
     </row>
     <row r="68">
@@ -12657,7 +12657,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-4.7165</v>
+        <v>26.70304</v>
       </c>
     </row>
     <row r="69">
@@ -12665,7 +12665,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-4.7165</v>
+        <v>26.70304</v>
       </c>
     </row>
     <row r="70">
@@ -12673,7 +12673,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>4.66794</v>
+        <v>25.6648</v>
       </c>
     </row>
     <row r="71">
@@ -12681,7 +12681,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>4.66794</v>
+        <v>25.6648</v>
       </c>
     </row>
     <row r="72">
@@ -12689,7 +12689,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>2.0499</v>
+        <v>0.99332</v>
       </c>
     </row>
     <row r="73">
@@ -12697,7 +12697,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2.0499</v>
+        <v>0.99332</v>
       </c>
     </row>
     <row r="74">
@@ -12705,7 +12705,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.04693</v>
+        <v>3.69215</v>
       </c>
     </row>
     <row r="75">
@@ -12713,7 +12713,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04693</v>
+        <v>3.69215</v>
       </c>
     </row>
     <row r="76">
@@ -12721,7 +12721,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.71555</v>
+        <v>-0.33661</v>
       </c>
     </row>
     <row r="77">
@@ -12729,7 +12729,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.71555</v>
+        <v>-0.33661</v>
       </c>
     </row>
     <row r="78">
@@ -12737,7 +12737,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.73231</v>
+        <v>4.02772</v>
       </c>
     </row>
     <row r="79">
@@ -12745,7 +12745,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-8.78223</v>
+        <v>24.40867</v>
       </c>
     </row>
     <row r="80">
@@ -12753,7 +12753,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-8.78223</v>
+        <v>24.40867</v>
       </c>
     </row>
     <row r="81">
@@ -12761,7 +12761,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-8.573740000000001</v>
+        <v>24.4119</v>
       </c>
     </row>
     <row r="82">
@@ -12769,7 +12769,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-8.573740000000001</v>
+        <v>24.4119</v>
       </c>
     </row>
   </sheetData>
@@ -12808,10 +12808,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.023999999999999</v>
+        <v>4.512</v>
       </c>
       <c r="C2" t="n">
-        <v>25.27</v>
+        <v>12.635</v>
       </c>
     </row>
     <row r="3">
@@ -12819,10 +12819,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.023999999999999</v>
+        <v>-4.512</v>
       </c>
       <c r="C3" t="n">
-        <v>25.27</v>
+        <v>12.635</v>
       </c>
     </row>
   </sheetData>
@@ -12872,10 +12872,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00033</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="4">
@@ -12883,10 +12883,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00033</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="5">
@@ -12905,10 +12905,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00106</v>
+        <v>-0.00053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00042</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="7">
@@ -12916,10 +12916,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00106</v>
+        <v>0.00053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00042</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="8">
@@ -12927,10 +12927,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00113</v>
+        <v>-0.00056</v>
       </c>
       <c r="C8" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -12938,10 +12938,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00113</v>
+        <v>0.00056</v>
       </c>
       <c r="C9" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -12949,10 +12949,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00226</v>
+        <v>-0.00113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00049</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="11">
@@ -12960,10 +12960,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00226</v>
+        <v>0.00113</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00049</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="12">
@@ -12971,10 +12971,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00232</v>
+        <v>-0.00116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00023</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="13">
@@ -12982,10 +12982,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00232</v>
+        <v>0.00116</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00023</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="14">
@@ -12993,10 +12993,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.00244</v>
+        <v>-0.00122</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00034</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="15">
@@ -13004,10 +13004,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00244</v>
+        <v>0.00122</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00034</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="16">
@@ -13015,10 +13015,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00245</v>
+        <v>-0.00123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="17">
@@ -13026,10 +13026,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00245</v>
+        <v>0.00123</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="18">
@@ -13037,10 +13037,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00251</v>
+        <v>-0.00125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00015</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="19">
@@ -13048,10 +13048,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00251</v>
+        <v>0.00125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00015</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="20">
@@ -13059,10 +13059,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00238</v>
+        <v>-0.00119</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="21">
@@ -13070,10 +13070,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00238</v>
+        <v>0.00119</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="22">
@@ -13081,10 +13081,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0019</v>
+        <v>-0.00095</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00063</v>
+        <v>-0.00031</v>
       </c>
     </row>
     <row r="23">
@@ -13092,10 +13092,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0019</v>
+        <v>0.00095</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00063</v>
+        <v>-0.00031</v>
       </c>
     </row>
     <row r="24">
@@ -13103,10 +13103,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00162</v>
+        <v>-0.00081</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.00036</v>
+        <v>-0.00018</v>
       </c>
     </row>
     <row r="25">
@@ -13114,10 +13114,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00162</v>
+        <v>0.00081</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00036</v>
+        <v>-0.00018</v>
       </c>
     </row>
     <row r="26">
@@ -13125,10 +13125,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.00134</v>
+        <v>-0.00067</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00141</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="27">
@@ -13136,10 +13136,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00134</v>
+        <v>0.00067</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00141</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="28">
@@ -13147,10 +13147,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.00095</v>
+        <v>-0.00048</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00113</v>
+        <v>-0.00057</v>
       </c>
     </row>
     <row r="29">
@@ -13158,10 +13158,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00095</v>
+        <v>0.00048</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00113</v>
+        <v>-0.00057</v>
       </c>
     </row>
     <row r="30">
@@ -13169,10 +13169,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00073</v>
+        <v>-0.00036</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00256</v>
+        <v>-0.00128</v>
       </c>
     </row>
     <row r="31">
@@ -13180,10 +13180,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00073</v>
+        <v>0.00036</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.00256</v>
+        <v>-0.00128</v>
       </c>
     </row>
     <row r="32">
@@ -13191,10 +13191,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00032</v>
+        <v>-0.00016</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.00345</v>
+        <v>-0.00172</v>
       </c>
     </row>
     <row r="33">
@@ -13202,10 +13202,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00032</v>
+        <v>0.00016</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.00345</v>
+        <v>-0.00172</v>
       </c>
     </row>
     <row r="34">
@@ -13213,10 +13213,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0003</v>
+        <v>-0.00015</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.00234</v>
+        <v>-0.00117</v>
       </c>
     </row>
     <row r="35">
@@ -13224,10 +13224,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0003</v>
+        <v>0.00015</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00234</v>
+        <v>-0.00117</v>
       </c>
     </row>
     <row r="36">
@@ -13235,10 +13235,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0001</v>
+        <v>-5e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00418</v>
+        <v>-0.00209</v>
       </c>
     </row>
     <row r="37">
@@ -13246,10 +13246,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001</v>
+        <v>5e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00418</v>
+        <v>-0.00209</v>
       </c>
     </row>
     <row r="38">
@@ -13260,7 +13260,7 @@
         <v>-0</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00439</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="39">
@@ -13268,10 +13268,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>4e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00333</v>
+        <v>-0.00166</v>
       </c>
     </row>
     <row r="40">
@@ -13279,10 +13279,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-4e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00333</v>
+        <v>-0.00166</v>
       </c>
     </row>
     <row r="41">
@@ -13290,10 +13290,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0001</v>
+        <v>5e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.00414</v>
+        <v>-0.00207</v>
       </c>
     </row>
     <row r="42">
@@ -13301,10 +13301,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0001</v>
+        <v>-5e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00414</v>
+        <v>-0.00207</v>
       </c>
     </row>
     <row r="43">
@@ -13315,7 +13315,7 @@
         <v>-0</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.00438</v>
+        <v>-0.00219</v>
       </c>
     </row>
   </sheetData>
